--- a/nuon/instagram_comments_roanjane2.xlsx
+++ b/nuon/instagram_comments_roanjane2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -963,6 +963,2941 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DFynp3oTmAf</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>18078422074715798</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>@flowerdog7378 145까지 나와요</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>@flowerdog7378</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.80544490840802e+16</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1739166353</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1365066477</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>roanjane2</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>로아앤제인공식계정(roanjane)</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DFynp3oTmAf</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>18054449084080201</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>요고 사이즈 몇까지 나올까용</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1739159841</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>12559416739</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>flowerdog7378</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DFynp3oTmAf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>18000190670740680</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>@ji_sister_ 맞아요!! 표현👏👏👏👏</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>@ji_sister_</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.805822221996733e+16</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1739002569</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1365066477</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>roanjane2</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>로아앤제인공식계정(roanjane)</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DFynp3oTmAf</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>18058222219967328</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>손민수 하고싶은 룩이예요😍</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1738983986</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>3153918160</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>ji_sister_</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>JIGRAM</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DFym49fz75y</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>18265641319284422</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>남아 옷도 많이 매장에 빨리 출시해주세요~펑키 윈드브레이커세트는 이미 구입했고 남아 봄옷 더 구입하고 싶은데 살만한 옷이 없어요ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1738976327</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>4116614096</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>jeonghyeona3994</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>정현아</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>DFrrV8eTvGU</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>17954976053873631</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>@kureu_mi 오늘요! 11시 무신사요</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>@kureu_mi</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.8487903888018548e+16</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1738801272</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1365066477</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>roanjane2</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>로아앤제인공식계정(roanjane)</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DFrrV8eTvGU</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>18487903888018549</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>언제오픈인가요</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1738799841</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>57060504786</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>kureu_mi</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>쿠르미</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DFrrV8eTvGU</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>17923604690917062</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>@sunmi28.lee 넘 이쁘죠 ㅎㅎ😍</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>@sunmi28.lee</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.805625904386356e+16</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1738754684</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1365066477</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>roanjane2</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>로아앤제인공식계정(roanjane)</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DFrrV8eTvGU</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>18056259043863553</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>매장에서 보자마자 너무예뻐서 반했어요❤️</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1738744851</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1391556727</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>sunmi28.lee</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>아블리맘</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DFmx7AcTn85</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>18116046838434096</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>@pohaha915 니트를 한참 입을때 들어올거구요 저희가 최대 맥스일을 기재했답니다</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>@pohaha915</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.825768285327716e+16</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1738647354</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1365066477</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>roanjane2</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>로아앤제인공식계정(roanjane)</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>DFmx7AcTn85</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>18257682853277154</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3월20일배송이면 니트입는시기가 지날것같은데 더 빨리 배송은 안되나용?</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1738636745</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>51438245607</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>pohaha915</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>DFmx7AcTn85</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>18070072063639983</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>@u._.sul 아니요 니트스커트라 별도 속치마는 없어요</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>@u._.sul</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.8049347202951228e+16</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1738634542</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1365066477</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>roanjane2</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>로아앤제인공식계정(roanjane)</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>DFmx7AcTn85</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>18049347202951228</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>스커트에 속바지 붙어있나용??</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1738625110</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1345892331</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>u._.sul</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>유설남매 •‿•</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>DFmx7AcTn85</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>18031767845540145</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>💜💜</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1738621342</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>1934710602</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>yeonhwa0408</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>우리가족♡</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DFmx7AcTn85</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>18031830434270925</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>미리보기에 가격은 내일 나오나요?</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1738579395</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>63927292444</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>seo_a__rang</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>DFkoFztz2th</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>18071399755686171</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>애들 금방 훅 크는 시점이라 갭은 있어요 😢</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.8036003716434264e+16</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1738575449</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>1365066477</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>roanjane2</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>로아앤제인공식계정(roanjane)</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>DFkoFztz2th</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>18036003716434264</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>사이즈가 130에서 갑자기 145로 뛰어서 중간사이즈 친구들 입기가... ㅜㅠ 진짜 애매했어요 130은 넘 딱이고 145는 넘 헐랭이고 ㅜㅠ</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1738551964</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>6245584184</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>2mavely</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>👨+👩=👧👧</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>DFO1CV4zqin</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>17973801815683208</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>색감진짜😍😍😍</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1737858840</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>610629384</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>loveme0619</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>minji park</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>DFO1CV4zqin</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>18050693968930569</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>@dhsh_loveyujoo 네 있어요~~</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>@dhsh_loveyujoo</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.844014160507496e+16</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1737824102</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>4148214785</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>roanjane_jane</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>송현지</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DFO1CV4zqin</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>17892795243156421</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>@cho0510 2/4일에 나와요 매장엔 있답니다</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>@cho0510</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.806523687085207e+16</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1737824095</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>4148214785</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>roanjane_jane</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>송현지</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DFO1CV4zqin</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>18146175853364748</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>꺅~~전부 다 겟하고 싶네요^^넘 예뻐요~~트위드  딸램이랑 커플로 입고싶네요^^😍❤️😍❤️</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1737811390</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>2941879495</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>ahram1228</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>최아람</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>DFO1CV4zqin</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>18030253388275757</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>@perpetua82 구정이후 2/4일에 나와요~~</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>@perpetua82</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.805777030894833e+16</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1737809541</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>1365066477</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>roanjane2</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>로아앤제인공식계정(roanjane)</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>DFO1CV4zqin</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>18057770308948328</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>핑크 트위드는 온라인 어디서 볼 수 있나요?</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1737799967</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>7544348414</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>perpetua82</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>박은혜</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DFO1CV4zqin</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>18440141605074959</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>판교 현백이나 의왕타임빌라스 매장가면 데님셋트 볼수잇나요?🩵</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1737781682</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>51412598650</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>dhsh_loveyujoo</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DFO1CV4zqin</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>18065236870852072</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>블랙리본바지랑 블랙원피스는 아직오픈안된건가요'?</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1737781570</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>2693261896</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>cho0510</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>이초희</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>DFEXQsXTebO</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>18050146562158699</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>@lovegahee</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>@lovegahee</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1737421401</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>67682969555</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>nonnonnno__</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>ch.yi</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>DFAnL02zlJ7</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>17869958004276799</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>@gornnova</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>@gornnova</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1737427009</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>53542514531</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>sssoyiii</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>DE9GnAHTs_M</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>18279428026220945</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>@u__sseul 넘 이쁘죠 ㅎㅎ</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>@u__sseul</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.786944424520542e+16</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1737188782</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1365066477</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>roanjane2</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>로아앤제인공식계정(roanjane)</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>DE9GnAHTs_M</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>17869444245205419</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>이스타일 너무좋아요💙</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1737178816</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>2311893305</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>u__sseul</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>LeeYou+Lumi+Roy</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>DE7DvQbTJKR</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>18022719923641341</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>기대 기대💜💜</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1737159543</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>733104443</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>sunlove03</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>썬~♡</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>DE7DvQbTJKR</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>18070345246688031</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>단정하고 고급지고 깔끔하고 예쁘기까지💕</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1737116851</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>3242039</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>s0326z</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>즐ㄱㅓ운ㅎㅏ루ㅎㅏ루🖤</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>DE2EXHZzs4l</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>18288771397173426</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>@s0326z (s0326z)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>@s0326z</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1.805476604929922e+16</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1737090746</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>3242039</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>s0326z</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>즐ㄱㅓ운ㅎㅏ루ㅎㅏ루🖤</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>DE2EXHZzs4l</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>18054766049299220</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>😆😍🥰 귀여워ㄹㅏ❤️❤️❤️ 우리집 꼬마공주 요거 입으면 넘 귀엽겠당☺️</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1737090285</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>3242039</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>s0326z</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>즐ㄱㅓ운ㅎㅏ루ㅎㅏ루🖤</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>DE2EXHZzs4l</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>18047201432183467</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>기다리고 있어요~~❤️(1495825721@k)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>@k</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1737023889</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>1522734450</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>jeesooyeon</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>지수연</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DE2EXHZzs4l</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>17913644922060120</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>❤️21일 기다리고 있어요~❤️</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1736955169</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>1464336514</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>min_kyung1234</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>챠밍</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>DE2EXHZzs4l</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>18055935184971805</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>뉴트럴 자켓❤️❤️❤️신학기룩으로👏👏👏소매에 체크포인트 고급져요😍😍😍</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1736942072</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>54319314063</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>minjun_0818</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>DE2EXHZzs4l</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>17955531062858148</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>어여 나와랏❤️❤️</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>1736941765</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1726150829</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>mija_ah</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>DEcQO9LTe-0</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>18255364375272018</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>@roanjane2 ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>@roanjane2</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>18481513552038442</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1736307245</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1736154139</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>libonss2</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>룰루랄라♡</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>DEcQO9LTe-0</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>18481513552038442</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>아고 1월에 종료되는 팝업이에요 😢</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>17953639598899735</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1736307038</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1365066477</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>roanjane2</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>로아앤제인공식계정(roanjane)</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>DEcQO9LTe-0</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>17890876125156514</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>@dajubini Yes❤️ in Danan, Zongxiao Fixing MRT station. please come visit by this Sunday! 1/12 (Sun) is the last day of the Pop up shop. 😍</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>@dajubini</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>18077475010619704</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1736261229</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2344814849</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>mombabyfun</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Mombabyfun童裝選品店</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>DEcQO9LTe-0</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>18077475010619704</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>타이베이살고있는데 소고 어느지점에서 하나요? 다안인가요?</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1736210358</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>5758728656</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>dajubini</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>yjjh</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>DEcQO9LTe-0</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>17953639598899735</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2월에 타이페이 8박9일 가는데 가보고 싶네요 ㅎ</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1736087977</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>1736154139</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>libonss2</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>룰루랄라♡</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>DEcQO9LTe-0</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>18083545561563560</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>I’m from Taiwan and love Roa &amp; Jane❤️</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1736085022</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>5976200530</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>chienhuei9909</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>💭💭Sophia ☻☻ mom of ellie❣️</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>DEcQO9LTe-0</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>18262762927253532</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>@hannah_herz08 그죠 위치도 딱 보이드에요 ㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>@hannah_herz08</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>18055348154051745</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1736077862</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>1365066477</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>roanjane2</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>로아앤제인공식계정(roanjane)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>DEcQO9LTe-0</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>18055348154051745</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>판교 초창기느낌😍</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1736076241</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>3464509456</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>hannah_herz08</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
